--- a/biology/Botanique/Lamier/Lamier.xlsx
+++ b/biology/Botanique/Lamier/Lamier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamium
 Lamium est un genre de plantes herbacées, les lamiers, de la famille des Lamiaceae.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de lamier est la francisation de Lamium issu du latin lamia, tiré du même mot grec désignant une créature monstrueuse (Lamia, ogresse dans la mythologie grecque), provenant de laimos, « gorge, gosier ». La corolle bilabiée des lamiers peut évoquer, pour un esprit imaginatif, la gueule ouverte de ces lamies monstrueuses[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de lamier est la francisation de Lamium issu du latin lamia, tiré du même mot grec désignant une créature monstrueuse (Lamia, ogresse dans la mythologie grecque), provenant de laimos, « gorge, gosier ». La corolle bilabiée des lamiers peut évoquer, pour un esprit imaginatif, la gueule ouverte de ces lamies monstrueuses.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes à tige de section carrée, à feuilles simples généralement dentées (quand il n'y a pas les fleurs on peut la confondre avec l'ortie), à fleurs en verticilles. Les inflorescences sont des verticilles, rapprochés au sommet de la tige. Les sépales forment un calice en forme de tube se terminant par 5 dents égales, les pétales forment eux une corolle à deux lèvres, la supérieure en forme de casque, masquant les étamines, à 3 lobes, le médian élargi, bilobé et les 2 latéraux très petits, en forme de dents. Les akènes sont tronqués au sommet[2]. On en rencontre une quarantaine d'espèces en Europe, Afrique du Nord et Asie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes à tige de section carrée, à feuilles simples généralement dentées (quand il n'y a pas les fleurs on peut la confondre avec l'ortie), à fleurs en verticilles. Les inflorescences sont des verticilles, rapprochés au sommet de la tige. Les sépales forment un calice en forme de tube se terminant par 5 dents égales, les pétales forment eux une corolle à deux lèvres, la supérieure en forme de casque, masquant les étamines, à 3 lobes, le médian élargi, bilobé et les 2 latéraux très petits, en forme de dents. Les akènes sont tronqués au sommet. On en rencontre une quarantaine d'espèces en Europe, Afrique du Nord et Asie.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lamiers (Lamier pourpre, ortie blanche…) ont de nombreuses utilisations alimentaires, médicinales[3] et des usages ludiques.[pas clair]
-Généralement résistants au gel et poussant bien dans la plupart des sols, certains sont largement cultivées comme couvre-sol. De nombreux cultivars ont été créés par sélection comme plantes décoratives pour le jardin[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lamiers (Lamier pourpre, ortie blanche…) ont de nombreuses utilisations alimentaires, médicinales et des usages ludiques.[pas clair]
+Généralement résistants au gel et poussant bien dans la plupart des sols, certains sont largement cultivées comme couvre-sol. De nombreux cultivars ont été créés par sélection comme plantes décoratives pour le jardin.
 Si les conditions de sols et d'exposition leur conviennent, ils font spontanément de bons couvre-sols, décoratifs. Les espèces à fleurs blanches et violettes sont généralement plantées au printemps en zone ensoleillée. Les lamiers à fleurs jaunes sont plantées en automne (automne) et préfèrent l'ombre (plante de sous-bois dans la Nature).
 </t>
         </is>
@@ -608,9 +626,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (31 Jan 2011)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (31 Jan 2011) :
 Lamium album L. (1753) - L'ortie blanche ou lamier blanc
 Lamium amplexicaule L. (1753) -  Lamier amplexicaule
 Lamium bifidum Cirillo (1788)
@@ -677,7 +697,9 @@
           <t>Plante hôte</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les chenilles des lépidoptères suivants se nourrissent de lamier :
 le C noir (Xestia C-nigrum L. famille des Noctuidae),
@@ -690,7 +712,7 @@
 la Noctuelle typique (Naenia typica L.),
 la Périzome coupée (Perizoma alchemillata, famille des Geometridae),
 la Plusie vert-doré (Diachrysia chrysitis, famille des Noctuidae),
-le Sphinx du pissenlit (Syntomi phegea L., famille des Syntomidae)[6].</t>
+le Sphinx du pissenlit (Syntomi phegea L., famille des Syntomidae).</t>
         </is>
       </c>
     </row>
